--- a/soutenance/outil-eval-impact-remu.xlsx
+++ b/soutenance/outil-eval-impact-remu.xlsx
@@ -482,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,6 +649,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -788,12 +792,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5116279069767"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.5116279069767"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1348837209302"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1434,29 +1438,29 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8837209302326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.22790697674419"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.5162790697674"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7720930232558"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.246511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.49302325581395"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="16.1767441860465"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0279069767442"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6883720930233"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5906976744186"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.1348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,10 +1840,10 @@
         <f aca="false">I14+K14</f>
         <v>54278.6618181818</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="42" t="n">
+      <c r="O14" s="43" t="n">
         <v>4000000</v>
       </c>
     </row>
@@ -1889,10 +1893,10 @@
         <f aca="false">I15+K15</f>
         <v>73507.7018181818</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="44" t="n">
+      <c r="O15" s="45" t="n">
         <v>2599408.8</v>
       </c>
       <c r="P15" s="18" t="n">
@@ -1900,12 +1904,12 @@
         <v>2599408.8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="n">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47" t="n">
         <f aca="false">AVERAGE(C10:C15)</f>
         <v>4012</v>
       </c>
@@ -1933,7 +1937,7 @@
         <f aca="false">C16*(1-F16)*12+G16</f>
         <v>50310.48</v>
       </c>
-      <c r="J16" s="47" t="n">
+      <c r="J16" s="48" t="n">
         <f aca="false">AVERAGE(J10:J15)</f>
         <v>198.916666666667</v>
       </c>
@@ -1945,43 +1949,43 @@
         <f aca="false">I16+K16</f>
         <v>70310.48</v>
       </c>
-      <c r="N16" s="43" t="s">
+      <c r="N16" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="48" t="n">
+      <c r="O16" s="49" t="n">
         <v>4000000</v>
       </c>
     </row>
-    <row r="17" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="49" t="n">
+      <c r="B17" s="46"/>
+      <c r="C17" s="50" t="n">
         <f aca="false">C16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>778328</v>
       </c>
-      <c r="D17" s="49" t="n">
+      <c r="D17" s="50" t="n">
         <f aca="false">D16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>9339936</v>
       </c>
-      <c r="E17" s="49" t="n">
+      <c r="E17" s="50" t="n">
         <f aca="false">E16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>7238450.4</v>
       </c>
-      <c r="G17" s="49" t="n">
+      <c r="G17" s="50" t="n">
         <f aca="false">G16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>2521782.72</v>
       </c>
-      <c r="H17" s="49" t="n">
+      <c r="H17" s="50" t="n">
         <f aca="false">H16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>2521782.72</v>
       </c>
-      <c r="I17" s="49" t="n">
+      <c r="I17" s="50" t="n">
         <f aca="false">I16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>9760233.12</v>
       </c>
-      <c r="J17" s="50" t="n">
+      <c r="J17" s="51" t="n">
         <f aca="false">J16*($O$7-COUNTA($A$10:$A$15))</f>
         <v>38589.8333333333</v>
       </c>
@@ -1993,7 +1997,7 @@
         <f aca="false">I17+K17</f>
         <v>13640233.12</v>
       </c>
-      <c r="N17" s="43" t="s">
+      <c r="N17" s="44" t="s">
         <v>66</v>
       </c>
       <c r="O17" s="18" t="n">
@@ -2003,44 +2007,44 @@
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="53" t="n">
+      <c r="C18" s="54" t="n">
         <f aca="false">SUM(C10:C15)+C17</f>
         <v>802400</v>
       </c>
-      <c r="D18" s="53" t="n">
+      <c r="D18" s="54" t="n">
         <f aca="false">SUM(D10:D15)+D17</f>
         <v>9628800</v>
       </c>
-      <c r="E18" s="53" t="n">
+      <c r="E18" s="54" t="n">
         <f aca="false">SUM(E10:E15)+E17</f>
         <v>7462626</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="53" t="n">
+      <c r="F18" s="52"/>
+      <c r="G18" s="54" t="n">
         <f aca="false">SUM(G10:G15)+G17</f>
         <v>2599408.8</v>
       </c>
-      <c r="H18" s="53" t="n">
+      <c r="H18" s="54" t="n">
         <f aca="false">SUM(H10:H15)+H17</f>
         <v>2599408.8</v>
       </c>
-      <c r="I18" s="53" t="n">
+      <c r="I18" s="54" t="n">
         <f aca="false">SUM(I10:I15)+I17</f>
         <v>10062034.8</v>
       </c>
-      <c r="J18" s="54" t="n">
+      <c r="J18" s="55" t="n">
         <f aca="false">SUM(J10:J15)+J17</f>
         <v>39783.3333333333</v>
       </c>
-      <c r="K18" s="53" t="n">
+      <c r="K18" s="54" t="n">
         <f aca="false">SUM(K10:K15)+K17</f>
         <v>4000000</v>
       </c>
-      <c r="L18" s="53" t="n">
+      <c r="L18" s="54" t="n">
         <f aca="false">SUM(L10:L15)+L17</f>
         <v>14062034.8</v>
       </c>

--- a/soutenance/outil-eval-impact-remu.xlsx
+++ b/soutenance/outil-eval-impact-remu.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t xml:space="preserve">Niveau</t>
   </si>
@@ -221,10 +221,16 @@
     <t xml:space="preserve">Autres salariés : total</t>
   </si>
   <si>
-    <t xml:space="preserve">Investissements N+1</t>
+    <t xml:space="preserve">Bénéfices</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reste pour Année +1</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_)&quot; €&quot;_ ;_ * \(#,##0.00&quot;) €&quot;_ ;_ * \-??_)&quot; €&quot;_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_)&quot; €&quot;_ ;_ * \(#,##0&quot;) €&quot;_ ;_ * \-??_)&quot; €&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="0\ %"/>
+    <numFmt numFmtId="169" formatCode="0,%"/>
     <numFmt numFmtId="170" formatCode="#,##0.00\ [$€-40C];\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="171" formatCode="0"/>
   </numFmts>
@@ -792,12 +798,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5116279069767"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.6139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.1488372093023"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.5116279069767"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.1348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.2139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.2558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1436,31 +1442,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.246511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="16.1767441860465"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6883720930233"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.5906976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.1348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.7627906976744"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1478,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
         <v>32</v>
@@ -1482,7 +1487,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="N5" s="16" t="s">
         <v>33</v>
@@ -2048,7 +2052,24 @@
         <f aca="false">SUM(L10:L15)+L17</f>
         <v>14062034.8</v>
       </c>
-    </row>
+      <c r="N18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="18" t="n">
+        <f aca="false">(O17+O16+O14)*0.3</f>
+        <v>4167349.56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="18" t="n">
+        <f aca="false">O17-O18</f>
+        <v>1723815.64</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
